--- a/问题记录/《项目问题记录表》-南京实施部-潘辰.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-潘辰.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>日期</t>
   </si>
@@ -37,6 +37,18 @@
   </si>
   <si>
     <t>解决方法</t>
+  </si>
+  <si>
+    <t>京茶山(红庙店)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘辰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月7日饿了么单数，老板通显示单数，报表中心单数不等。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -467,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -502,7 +514,18 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="8"/>
+      <c r="A2" s="8">
+        <v>43108</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>

--- a/问题记录/《项目问题记录表》-南京实施部-潘辰.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-潘辰.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>日期</t>
   </si>
@@ -37,18 +37,6 @@
   </si>
   <si>
     <t>解决方法</t>
-  </si>
-  <si>
-    <t>京茶山(红庙店)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>潘辰</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1月7日饿了么单数，老板通显示单数，报表中心单数不等。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -479,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -517,14 +505,8 @@
       <c r="A2" s="8">
         <v>43108</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
+      <c r="B2" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">

--- a/问题记录/《项目问题记录表》-南京实施部-潘辰.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-潘辰.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>日期</t>
   </si>
@@ -37,6 +37,70 @@
   </si>
   <si>
     <t>解决方法</t>
+  </si>
+  <si>
+    <t>商户中心</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品主料名称列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>配料数量与菜品数量相关</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>作配菜时可单独销售</t>
+  </si>
+  <si>
+    <t>如果不勾选，则作为配菜时在线上线下不显示。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾选后，点几份菜品，配菜数量变为几份。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店账单数据保留天数</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.后台设置 2.配置字段</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品主料名称列表是用于原材料的沽清，多用于批量估清。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>京茶山（红庙店）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>外卖单数与SAAS单数，report单数不一致</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>退单没作废</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -133,7 +197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -159,6 +223,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -467,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -508,32 +578,99 @@
       <c r="B2" s="3">
         <v>2</v>
       </c>
+      <c r="E2" s="9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="8">
+        <v>43110</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="D3" s="7"/>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="8">
+        <v>43110</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="D4" s="7"/>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="A5" s="8">
+        <v>43110</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="D5" s="7"/>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="8">
+        <v>43110</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="D6" s="7"/>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="7"/>
+      <c r="A7" s="8">
+        <v>43109</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="D7" s="7"/>
+      <c r="E7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>

--- a/问题记录/《项目问题记录表》-南京实施部-潘辰.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-潘辰.xlsx
@@ -537,7 +537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>

--- a/问题记录/《项目问题记录表》-南京实施部-潘辰.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-潘辰.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>日期</t>
   </si>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>退单没作废</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>京茶山（常州吾悦店）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店有25减8的活动，但是报表里不显示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台没接外卖系统，仅限手工补录。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -538,7 +550,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -673,9 +685,24 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="7"/>
+      <c r="A8" s="8">
+        <v>43115</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="8"/>
       <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">

--- a/问题记录/《项目问题记录表》-南京实施部-潘辰.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-潘辰.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\hualala\NanJing\问题记录\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20610" windowHeight="9330"/>
+    <workbookView windowWidth="21300" windowHeight="8922"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>日期</t>
   </si>
@@ -40,32 +35,40 @@
   </si>
   <si>
     <t>商户中心</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜品主料名称列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘辰</t>
+  </si>
+  <si>
+    <t>菜品主料名称列表的作用/应用场景</t>
+  </si>
+  <si>
+    <t>菜品主料名称列表是用于原材料的沽清，多用于批量估清。</t>
   </si>
   <si>
     <t>配料数量与菜品数量相关</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾选后，点几份菜品，配菜数量变为几份。</t>
   </si>
   <si>
     <t>作配菜时可单独销售</t>
   </si>
   <si>
     <t>如果不勾选，则作为配菜时在线上线下不显示。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>勾选后，点几份菜品，配菜数量变为几份。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>门店账单数据保留天数</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -74,52 +77,41 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>.后台设置 2.配置字段</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜品主料名称列表是用于原材料的沽清，多用于批量估清。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>京茶山（红庙店）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>外卖单数与SAAS单数，report单数不一致</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>退单没作废</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>京茶山（常州吾悦店）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>门店有25减8的活动，但是报表里不显示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>后台没接外卖系统，仅限手工补录。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,22 +143,159 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,12 +304,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -203,9 +518,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -228,33 +785,77 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -541,29 +1142,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.2522522522523" style="2" customWidth="1"/>
     <col min="2" max="2" width="12" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="70.25" style="4" customWidth="1"/>
-    <col min="6" max="6" width="71.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.1261261261261" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.6216216216216" style="3" customWidth="1"/>
+    <col min="5" max="5" width="70.2522522522522" style="4" customWidth="1"/>
+    <col min="6" max="6" width="71.2522522522522" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="20.1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -583,19 +1184,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="8">
-        <v>43108</v>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6">
+        <v>43110</v>
       </c>
       <c r="B2" s="3">
         <v>2</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>15</v>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="8">
+    <row r="3" spans="1:6">
+      <c r="A3" s="6">
         <v>43110</v>
       </c>
       <c r="B3" s="3">
@@ -604,16 +1214,18 @@
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="8">
+    <row r="4" spans="1:6">
+      <c r="A4" s="6">
         <v>43110</v>
       </c>
       <c r="B4" s="3">
@@ -622,16 +1234,18 @@
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="8">
+    <row r="5" ht="14.15" spans="1:6">
+      <c r="A5" s="6">
         <v>43110</v>
       </c>
       <c r="B5" s="3">
@@ -640,81 +1254,70 @@
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="8">
-        <v>43110</v>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6">
+        <v>43109</v>
       </c>
       <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>13</v>
+      <c r="C6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="8">
-        <v>43109</v>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6">
+        <v>43115</v>
       </c>
       <c r="B7" s="3">
-        <v>2</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="8">
-        <v>43115</v>
-      </c>
-      <c r="B8" s="3">
-        <v>3</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>21</v>
-      </c>
+    <row r="8" spans="1:2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="7"/>
+    <row r="9" spans="2:2">
+      <c r="B9" s="9"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
+    <row r="10" spans="1:2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/问题记录/《项目问题记录表》-南京实施部-潘辰.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-潘辰.xlsx
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -717,7 +717,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
+      <c r="A8" s="6">
+        <v>43126</v>
+      </c>
       <c r="B8" s="3">
         <v>4</v>
       </c>
